--- a/clcore_ig/output/StructureDefinition-SexoBiologico.xlsx
+++ b/clcore_ig/output/StructureDefinition-SexoBiologico.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.7</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-07T17:15:51-03:00</t>
+    <t>2024-09-26T12:51:50-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Chile (http://hl7chile.cl, chair@hl7chile.cl)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -129,10 +129,10 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePacienteCl#Patient</t>
-  </si>
-  <si>
-    <t>element:https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePrestadorCl#Practitioner</t>
+    <t>element:Patient</t>
+  </si>
+  <si>
+    <t>element:Practitioner</t>
   </si>
   <si>
     <t>ID</t>
